--- a/data/test_results.xlsx
+++ b/data/test_results.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1173,6 +1173,726 @@
         </is>
       </c>
     </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/property/solar-panels-for-pool-heat-and-a-solar-blanket-as-well-some-dog-breeds-allowed/HA-121241425</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Hybrid</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Property available in date range</t>
+        </is>
+      </c>
+      <c r="E26" t="b">
+        <v>1</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>The property 'Solar panels for pool heat and a solar blanket as well. Some dog breeds allowed.' is Available in the specified date range. | **Location:** West Jillborough | **Date Range:** Check-in: 2025-01-13, Check-out: 2025-01-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/property/phantom-history-house-portrait-room/BC-9329431</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Hybrid</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Property available in date range</t>
+        </is>
+      </c>
+      <c r="E27" t="b">
+        <v>1</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>The property 'Phantom History House - Portrait Room' is Available in the specified date range. | **Location:** West Jillborough | **Date Range:** Check-in: 2025-01-13, Check-out: 2025-01-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/property/holiday-inn-express-suites-ruskin-an-ihg-hotel/EP-38738299</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Hybrid</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Property available in date range</t>
+        </is>
+      </c>
+      <c r="E28" t="b">
+        <v>1</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>The property 'Holiday Inn Express &amp; Suites Ruskin, an IHG Hotel' is Available in the specified date range. | **Location:** West Jillborough | **Date Range:** Check-in: 2025-01-13, Check-out: 2025-01-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/property/2-pm-checkin-heated-pool-and-private-balcony/HA-3211209986</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Hybrid</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Property available in date range</t>
+        </is>
+      </c>
+      <c r="E29" t="b">
+        <v>1</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>The property '2 PM Checkin- Heated Pool and Private Balcony' is Available in the specified date range. | **Location:** West Jillborough | **Date Range:** Check-in: 2025-01-13, Check-out: 2025-01-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/property/soho-serenity-amazing-home-with-private-pool-hot-tub-soho-district/BC-11052488</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Hybrid</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Property available in date range</t>
+        </is>
+      </c>
+      <c r="E30" t="b">
+        <v>1</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>The property 'SoHo Serenity - Amazing Home with Private Pool &amp; Hot Tub, SoHo District' is Available in the specified date range. | **Location:** West Jillborough | **Date Range:** Check-in: 2025-01-13, Check-out: 2025-01-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/property/epicurean-hotel-autograph-collection/EP-6550073</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Hybrid</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Property available in date range</t>
+        </is>
+      </c>
+      <c r="E31" t="b">
+        <v>1</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>The property 'Epicurean Hotel, Autograph Collection' is Available in the specified date range. | **Location:** West Jillborough | **Date Range:** Check-in: 2025-01-13, Check-out: 2025-01-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/property/tampa-florida-vacation-delight/HA-121984051</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Hybrid</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Property available in date range</t>
+        </is>
+      </c>
+      <c r="E32" t="b">
+        <v>1</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>The property 'TAMPA FLORIDA VACATION DELIGHT' is Available in the specified date range. | **Location:** West Jillborough | **Date Range:** Check-in: 2025-01-13, Check-out: 2025-01-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/property/cozy-hyde-park-home/BC-12243545</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Hybrid</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Property available in date range</t>
+        </is>
+      </c>
+      <c r="E33" t="b">
+        <v>1</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>The property 'Cozy Hyde Park Home' is Available in the specified date range. | **Location:** West Jillborough | **Date Range:** Check-in: 2025-01-13, Check-out: 2025-01-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/property/jw-marriott-tampa-water-street/EP-60094289</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Hybrid</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Property available in date range</t>
+        </is>
+      </c>
+      <c r="E34" t="b">
+        <v>1</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>The property 'JW Marriott Tampa Water Street' is Available in the specified date range. | **Location:** West Jillborough | **Date Range:** Check-in: 2025-01-13, Check-out: 2025-01-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/property/experience-waterfront-luxury-in-tampa-bay/HA-3212439093</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Hybrid</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Property available in date range</t>
+        </is>
+      </c>
+      <c r="E35" t="b">
+        <v>1</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>The property 'Experience waterfront luxury in Tampa Bay!' is Available in the specified date range. | **Location:** West Jillborough | **Date Range:** Check-in: 2025-01-13, Check-out: 2025-01-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/property/phantom-history-house-ouija-room/BC-9330840</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Hybrid</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Property available in date range</t>
+        </is>
+      </c>
+      <c r="E36" t="b">
+        <v>1</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>The property 'Phantom History House - Ouija Room' is Available in the specified date range. | **Location:** West Jillborough | **Date Range:** Check-in: 2025-01-13, Check-out: 2025-01-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/property/roost-tampa/EP-79446288</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Hybrid</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Property available in date range</t>
+        </is>
+      </c>
+      <c r="E37" t="b">
+        <v>1</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>The property 'ROOST Tampa' is Available in the specified date range. | **Location:** West Jillborough | **Date Range:** Check-in: 2025-01-13, Check-out: 2025-01-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/property/cozy-pet-friendly-tampa-home-with-heated-screened-pool-4-miles-to-adventure-island-busch-garden/HA-1219780343</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Hybrid</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Property available in date range</t>
+        </is>
+      </c>
+      <c r="E38" t="b">
+        <v>1</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>The property 'Cozy, Pet-Friendly Tampa Home with Heated &amp; Screened Pool - 4 miles to Adventure Island/Busch Garden' is Available in the specified date range. | **Location:** West Jillborough | **Date Range:** Check-in: 2025-01-13, Check-out: 2025-01-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/property/phantom-history-house-cemetery-room/BC-9336300</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Hybrid</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Property available in date range</t>
+        </is>
+      </c>
+      <c r="E39" t="b">
+        <v>1</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>The property 'Phantom History House - Cemetery Room' is Available in the specified date range. | **Location:** West Jillborough | **Date Range:** Check-in: 2025-01-13, Check-out: 2025-01-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/property/holiday-inn-express-suites-tampa-stadium-airport-area-an-ihg-hotel/EP-3530</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Hybrid</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Property available in date range</t>
+        </is>
+      </c>
+      <c r="E40" t="b">
+        <v>1</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>The property 'Holiday Inn Express &amp; Suites Tampa Stadium – Airport Area, an IHG Hotel' is Available in the specified date range. | **Location:** West Jillborough | **Date Range:** Check-in: 2025-01-13, Check-out: 2025-01-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/property/waterfront-oasis-with-private-heated-screened-pool-dock-w-boat-lift-3br-2ba/HA-3212257372</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Hybrid</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Property available in date range</t>
+        </is>
+      </c>
+      <c r="E41" t="b">
+        <v>1</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>The property 'Waterfront oasis with private heated &amp; screened pool, dock w/boat lift. 3BR/2BA' is Available in the specified date range. | **Location:** West Jillborough | **Date Range:** Check-in: 2025-01-13, Check-out: 2025-01-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/property/boho-zen-style-pool-home-3-2-ping-pong-bbq/BC-11185375</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Hybrid</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Property available in date range</t>
+        </is>
+      </c>
+      <c r="E42" t="b">
+        <v>1</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>The property 'Boho Zen style pool home 3/2 ping pong BBQ' is Available in the specified date range. | **Location:** West Jillborough | **Date Range:** Check-in: 2025-01-13, Check-out: 2025-01-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/property/fairfield-inn-suites-by-marriott-tampa-riverview/EP-45710675</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Hybrid</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Property available in date range</t>
+        </is>
+      </c>
+      <c r="E43" t="b">
+        <v>1</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>The property 'Fairfield Inn &amp; Suites by Marriott Tampa Riverview' is Available in the specified date range. | **Location:** West Jillborough | **Date Range:** Check-in: 2025-01-13, Check-out: 2025-01-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/property/luxury-waterfront-home-dock-pool-jacuzzi-kayaks/HA-3212203055</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Hybrid</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Property available in date range</t>
+        </is>
+      </c>
+      <c r="E44" t="b">
+        <v>1</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>The property 'Luxury Waterfront Home DOCK POOL JACUZZI KAYAKS' is Available in the specified date range. | **Location:** West Jillborough | **Date Range:** Check-in: 2025-01-13, Check-out: 2025-01-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/property/cozy-family-home-in-tampa-with-private-heated-pool-pool-table-and-kids-play-area/BC-8997282</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Hybrid</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Property available in date range</t>
+        </is>
+      </c>
+      <c r="E45" t="b">
+        <v>1</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>The property 'Cozy Family Home in Tampa with Private &amp; Heated POOL, Pool table and Kids Play Area' is Available in the specified date range. | **Location:** West Jillborough | **Date Range:** Check-in: 2025-01-13, Check-out: 2025-01-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/property/hampton-inn-suites-ruskin-i-75/EP-65708689</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Hybrid</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Property available in date range</t>
+        </is>
+      </c>
+      <c r="E46" t="b">
+        <v>1</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>The property 'Hampton Inn &amp; Suites Ruskin I-75' is Available in the specified date range. | **Location:** West Jillborough | **Date Range:** Check-in: 2025-01-13, Check-out: 2025-01-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/property/spacious-waterfront-home-in-apollo-beach-w-private-swimming-pool-and-boat-dock/HA-3213631391</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Hybrid</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Property available in date range</t>
+        </is>
+      </c>
+      <c r="E47" t="b">
+        <v>1</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>The property 'Spacious waterfront home in Apollo Beach w/private swimming pool and boat dock.' is Available in the specified date range. | **Location:** West Jillborough | **Date Range:** Check-in: 2025-01-13, Check-out: 2025-01-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/property/wake-up-to-ocean-views-from-your-private-balcony/BC-9164457</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Hybrid</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Property available in date range</t>
+        </is>
+      </c>
+      <c r="E48" t="b">
+        <v>1</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>The property 'Wake up to Ocean Views from your private balcony' is Available in the specified date range. | **Location:** West Jillborough | **Date Range:** Check-in: 2025-01-13, Check-out: 2025-01-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/property/hampton-inn-suites-tampa-airport-avion-park-westshore/EP-15816033</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Hybrid</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Property available in date range</t>
+        </is>
+      </c>
+      <c r="E49" t="b">
+        <v>0</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>The property 'Hampton Inn &amp; Suites Tampa Airport Avion Park Westshore' is Unavailable in the specified date range. | **Location:** West Jillborough | **Date Range:** Check-in: 2025-01-13, Check-out: 2025-01-19</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
